--- a/thresholds/IGCSE/science-combined/science-combined-thresholds.xlsx
+++ b/thresholds/IGCSE/science-combined/science-combined-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,48 +903,48 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -963,17 +963,17 @@
         <v>73</v>
       </c>
       <c r="G13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1004,17 +1004,17 @@
         <v>73</v>
       </c>
       <c r="G14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1045,17 +1045,17 @@
         <v>73</v>
       </c>
       <c r="G15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1086,17 +1086,17 @@
         <v>73</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1108,36 +1108,36 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H17" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,7 +1231,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1272,7 +1272,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1313,77 +1313,77 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G22" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H22" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
         <v>77</v>
       </c>
       <c r="G23" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,36 +1395,36 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D24" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" t="n">
         <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,36 +1436,36 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
         <v>77</v>
       </c>
       <c r="G25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1477,36 +1477,36 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>200</v>
       </c>
       <c r="C26" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1518,36 +1518,36 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F27" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G27" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H27" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1600,7 +1600,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1616,20 +1616,20 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="n">
         <v>78</v>
       </c>
       <c r="H29" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1682,118 +1682,118 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>200</v>
       </c>
       <c r="C31" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G31" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H31" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I31" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C32" t="n">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D32" t="n">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E32" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F32" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G32" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H32" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I32" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>200</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F33" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G33" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H33" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I33" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1805,118 +1805,118 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E34" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F34" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G34" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H34" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I34" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>97</v>
+      </c>
+      <c r="G35" t="n">
         <v>82</v>
       </c>
-      <c r="G35" t="n">
-        <v>70</v>
-      </c>
       <c r="H35" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I35" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F36" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G36" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H36" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I36" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1928,118 +1928,118 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D37" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E37" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H37" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I37" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>200</v>
       </c>
       <c r="C38" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G38" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H38" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I38" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>200</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F39" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G39" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H39" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I39" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2051,36 +2051,36 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>200</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F40" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H40" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I40" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2092,32 +2092,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>200</v>
       </c>
       <c r="C41" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G41" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H41" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I41" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2126,71 +2126,71 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>200</v>
       </c>
       <c r="C42" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>98</v>
+      </c>
+      <c r="G42" t="n">
         <v>83</v>
       </c>
-      <c r="G42" t="n">
-        <v>71</v>
-      </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I42" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>200</v>
       </c>
       <c r="C43" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D43" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E43" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>68</v>
@@ -2215,23 +2215,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D44" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>71</v>
@@ -2256,7 +2256,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2297,32 +2297,32 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>200</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F46" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H46" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2338,36 +2338,36 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>200</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F47" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H47" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I47" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2379,7 +2379,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="n">
         <v>70</v>
@@ -2420,7 +2420,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>80</v>
@@ -2461,39 +2461,162 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>GX 11,31,61</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>200</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>97</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>70</v>
+      </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>GY 12,32,62</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>200</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93</v>
+      </c>
+      <c r="G51" t="n">
+        <v>80</v>
+      </c>
+      <c r="H51" t="n">
+        <v>67</v>
+      </c>
+      <c r="I51" t="n">
+        <v>54</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
           <t>GZ 13,33,63</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>200</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="B52" t="n">
+        <v>200</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>93</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G52" t="n">
         <v>80</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H52" t="n">
         <v>67</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I52" t="n">
         <v>54</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>90</v>
+      </c>
+      <c r="C53" t="n">
+        <v>78</v>
+      </c>
+      <c r="D53" t="n">
+        <v>68</v>
+      </c>
+      <c r="E53" t="n">
+        <v>58</v>
+      </c>
+      <c r="F53" t="n">
+        <v>48</v>
+      </c>
+      <c r="G53" t="n">
+        <v>39</v>
+      </c>
+      <c r="H53" t="n">
+        <v>31</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
